--- a/BarraPCA/access_barra.xlsx
+++ b/BarraPCA/access_barra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\barra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9068DD-B20B-4F0B-9C51-BA54336318B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965156C6-5BAD-43B9-80E8-61699FDDD2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4236" yWindow="1824" windowWidth="16824" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="636" yWindow="1080" windowWidth="15576" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="access_target" sheetId="1" r:id="rId1"/>
@@ -1029,9 +1029,6 @@
     <filterColumn colId="9" hiddenButton="1"/>
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K1">
-    <sortCondition descending="1" ref="K1"/>
-  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{E9890D40-424B-4B70-AAA7-10D4D4898842}" name="UPDATE" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{773C700A-01DE-4AA2-927A-741A277DAEE2}" name="SERVER" dataDxfId="9"/>
@@ -1350,7 +1347,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/BarraPCA/access_barra.xlsx
+++ b/BarraPCA/access_barra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Winst\Nutstore\1\我的坚果云\XJIntern\PyCharmProject\BarraPCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winston/Documents/我的坚果云/XJIntern/PyCharmProject/BarraPCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965156C6-5BAD-43B9-80E8-61699FDDD2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7258DF6A-F7D4-F641-8BF3-0FFE49C39E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="1080" windowWidth="15576" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="1080" windowWidth="21060" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="access_target" sheetId="1" r:id="rId1"/>
@@ -167,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,8 +1015,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DF4A73F-FA93-4D17-A906-1A4CF1B55C7A}" name="表1" displayName="表1" ref="A1:K1048448" totalsRowShown="0" dataDxfId="11">
-  <autoFilter ref="A1:K1048448" xr:uid="{8DF4A73F-FA93-4D17-A906-1A4CF1B55C7A}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8DF4A73F-FA93-4D17-A906-1A4CF1B55C7A}" name="表1" displayName="表1" ref="A1:K11" totalsRowShown="0" dataDxfId="11">
+  <autoFilter ref="A1:K11" xr:uid="{8DF4A73F-FA93-4D17-A906-1A4CF1B55C7A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1345,26 +1345,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>0</v>
       </c>
